--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H2">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I2">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J2">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02035233333333334</v>
+        <v>0.02035233333333333</v>
       </c>
       <c r="N2">
-        <v>0.06105700000000001</v>
+        <v>0.061057</v>
       </c>
       <c r="O2">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="P2">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="Q2">
-        <v>0.03252055925022223</v>
+        <v>0.03252055925022222</v>
       </c>
       <c r="R2">
-        <v>0.2926850332520001</v>
+        <v>0.292685033252</v>
       </c>
       <c r="S2">
-        <v>0.3497496022713311</v>
+        <v>0.1154499369694791</v>
       </c>
       <c r="T2">
-        <v>0.349749602271331</v>
+        <v>0.115449936969479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,46 +593,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H3">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I3">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J3">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.03680566666666667</v>
+        <v>0.1381673333333333</v>
       </c>
       <c r="N3">
-        <v>0.110417</v>
+        <v>0.414502</v>
       </c>
       <c r="O3">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="P3">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="Q3">
-        <v>0.05881098957911111</v>
+        <v>0.2207746343635555</v>
       </c>
       <c r="R3">
-        <v>0.529298906212</v>
+        <v>1.986971709272</v>
       </c>
       <c r="S3">
-        <v>0.632495894557439</v>
+        <v>0.7837632011681381</v>
       </c>
       <c r="T3">
-        <v>0.6324958945574389</v>
+        <v>0.783763201168138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H4">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I4">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J4">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -673,28 +673,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02035233333333334</v>
+        <v>0.02035233333333333</v>
       </c>
       <c r="N4">
-        <v>0.06105700000000001</v>
+        <v>0.061057</v>
       </c>
       <c r="O4">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="P4">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="Q4">
-        <v>0.0005878228754444446</v>
+        <v>0.003645014706555555</v>
       </c>
       <c r="R4">
-        <v>0.005290405879000001</v>
+        <v>0.032805132359</v>
       </c>
       <c r="S4">
-        <v>0.006321872121288313</v>
+        <v>0.01294002095372291</v>
       </c>
       <c r="T4">
-        <v>0.006321872121288312</v>
+        <v>0.01294002095372291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H5">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I5">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J5">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03680566666666667</v>
+        <v>0.1381673333333333</v>
       </c>
       <c r="N5">
-        <v>0.110417</v>
+        <v>0.414502</v>
       </c>
       <c r="O5">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="P5">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="Q5">
-        <v>0.001063033533222222</v>
+        <v>0.02474517067488889</v>
       </c>
       <c r="R5">
-        <v>0.009567301799</v>
+        <v>0.222706536074</v>
       </c>
       <c r="S5">
-        <v>0.01143263104994172</v>
+        <v>0.08784684090866003</v>
       </c>
       <c r="T5">
-        <v>0.01143263104994172</v>
+        <v>0.08784684090866002</v>
       </c>
     </row>
   </sheetData>
